--- a/Data/Data dictionary KD3.xlsx
+++ b/Data/Data dictionary KD3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="105" windowWidth="13935" windowHeight="9480" activeTab="4"/>
+    <workbookView xWindow="60" yWindow="165" windowWidth="13215" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data key" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="85">
   <si>
     <t>p.sus</t>
   </si>
@@ -270,7 +270,10 @@
     <t>p.ltbi.ongoing risk</t>
   </si>
   <si>
-    <t>param$POP * (1 - (param$TESTSN * param$ATTEND) - (param$RR * param$RRADJUST * (1 - (param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT))))</t>
+    <t>((1 - param$POP) * param$RR * param$RRADJUST) + (param$POP * param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT))))</t>
+  </si>
+  <si>
+    <t>param$POP * (1 - (param$TESTSN * param$ATTEND) - (param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT)))))</t>
   </si>
 </sst>
 </file>
@@ -771,11 +774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13825,11 +13828,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="Y51" sqref="B28:Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14483,8 +14486,8 @@
       <c r="W8" s="4">
         <v>0</v>
       </c>
-      <c r="X8" s="4">
-        <v>0</v>
+      <c r="X8" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>46</v>
@@ -14691,7 +14694,7 @@
         <v>76</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>67</v>
@@ -14715,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="V11" s="4">
         <v>0</v>
@@ -15203,8 +15206,8 @@
       <c r="W17" s="4">
         <v>0</v>
       </c>
-      <c r="X17" s="4">
-        <v>0</v>
+      <c r="X17" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>46</v>
@@ -15526,8 +15529,8 @@
       <c r="X21" s="4">
         <v>0</v>
       </c>
-      <c r="Y21" s="4">
-        <v>0</v>
+      <c r="Y21" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="Z21" s="3">
         <v>20</v>
@@ -15885,67 +15888,67 @@
         <v>0,</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>"quote("&amp;C2&amp;"),"</f>
+        <f t="shared" ref="C28:H28" si="0">"quote("&amp;C2&amp;"),"</f>
         <v>quote(1 - param$POP),</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f>"quote("&amp;D2&amp;"),"</f>
+        <f t="shared" si="0"/>
         <v>quote(param$POP * (1 - (1-param$TESTSP) * param$ATTEND)),</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f>"quote("&amp;E2&amp;"),"</f>
+        <f t="shared" si="0"/>
         <v>quote(param$POP * (1 - param$TESTSP) * param$ATTEND * (1 - param$BEGINTREAT)),</v>
       </c>
       <c r="F28" s="4" t="str">
-        <f>"quote("&amp;F2&amp;"),"</f>
+        <f t="shared" si="0"/>
         <v>quote(param$POP * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * (1 - param$TREATR - param$SAE)),</v>
       </c>
       <c r="G28" s="4" t="str">
-        <f>"quote("&amp;G2&amp;"),"</f>
+        <f t="shared" si="0"/>
         <v>quote(param$POP * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * param$TREATR),</v>
       </c>
       <c r="H28" s="4" t="str">
-        <f>"quote("&amp;H2&amp;"),"</f>
+        <f t="shared" si="0"/>
         <v>quote(param$POP * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * param$SAE),</v>
       </c>
       <c r="I28" s="4" t="str">
-        <f t="shared" ref="C28:R43" si="0">I2&amp;","</f>
+        <f t="shared" ref="C28:R43" si="1">I2&amp;","</f>
         <v>0,</v>
       </c>
       <c r="J28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="K28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S28" s="4" t="str">
@@ -15953,27 +15956,27 @@
         <v>0,</v>
       </c>
       <c r="T28" s="4" t="str">
-        <f t="shared" ref="T28:X28" si="1">T2&amp;","</f>
+        <f t="shared" ref="T28:X28" si="2">T2&amp;","</f>
         <v>0,</v>
       </c>
       <c r="U28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="V28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="W28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="X28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Y28" s="4" t="str">
-        <f t="shared" ref="Y28" si="2">Y2&amp;","</f>
+        <f t="shared" ref="Y28" si="3">Y2&amp;","</f>
         <v>0,</v>
       </c>
       <c r="Z28" s="3">
@@ -15982,99 +15985,99 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="str">
-        <f t="shared" ref="B29:Q51" si="3">B3&amp;","</f>
+        <f t="shared" ref="B29:Q51" si="4">B3&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="F29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="I29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="J29" s="4" t="str">
-        <f>"quote("&amp;J3&amp;"),"</f>
+        <f t="shared" ref="J29:J34" si="5">"quote("&amp;J3&amp;"),"</f>
         <v>quote(CMP),</v>
       </c>
       <c r="K29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="M29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="N29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="O29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="P29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="Q29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="R29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S29" s="4" t="str">
-        <f t="shared" ref="S29:W29" si="4">S3&amp;","</f>
+        <f t="shared" ref="S29:W29" si="6">S3&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T29" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="U29" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="V29" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="W29" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="X29" s="4" t="str">
-        <f>"quote("&amp;X3&amp;"),"</f>
+        <f t="shared" ref="X29:Y34" si="7">"quote("&amp;X3&amp;"),"</f>
         <v>quote(param$MR),</v>
       </c>
       <c r="Y29" s="4" t="str">
-        <f>"quote("&amp;Y3&amp;"),"</f>
+        <f t="shared" si="7"/>
         <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z29" s="3">
@@ -16083,99 +16086,99 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f>"quote("&amp;J4&amp;"),"</f>
+        <f t="shared" si="5"/>
         <v>quote(CMP),</v>
       </c>
       <c r="K30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S30" s="4" t="str">
-        <f t="shared" ref="S30:W30" si="5">S4&amp;","</f>
+        <f t="shared" ref="S30:W30" si="8">S4&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T30" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="U30" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="V30" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="W30" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="X30" s="4" t="str">
-        <f>"quote("&amp;X4&amp;"),"</f>
+        <f t="shared" si="7"/>
         <v>quote(param$MR),</v>
       </c>
       <c r="Y30" s="4" t="str">
-        <f>"quote("&amp;Y4&amp;"),"</f>
+        <f t="shared" si="7"/>
         <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z30" s="3">
@@ -16184,99 +16187,99 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f>"quote("&amp;J5&amp;"),"</f>
+        <f t="shared" si="5"/>
         <v>quote(CMP),</v>
       </c>
       <c r="K31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S31" s="4" t="str">
-        <f t="shared" ref="S31:W31" si="6">S5&amp;","</f>
+        <f t="shared" ref="S31:W31" si="9">S5&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T31" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U31" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V31" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="W31" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="X31" s="4" t="str">
-        <f>"quote("&amp;X5&amp;"),"</f>
+        <f t="shared" si="7"/>
         <v>quote(param$MR),</v>
       </c>
       <c r="Y31" s="4" t="str">
-        <f>"quote("&amp;Y5&amp;"),"</f>
+        <f t="shared" si="7"/>
         <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z31" s="3">
@@ -16285,99 +16288,99 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f>"quote("&amp;J6&amp;"),"</f>
+        <f t="shared" si="5"/>
         <v>quote(CMP),</v>
       </c>
       <c r="K32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S32" s="4" t="str">
-        <f t="shared" ref="S32:W32" si="7">S6&amp;","</f>
+        <f t="shared" ref="S32:W32" si="10">S6&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T32" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="U32" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="V32" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="W32" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="X32" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="U32" s="4" t="str">
+        <v>quote(param$MR),</v>
+      </c>
+      <c r="Y32" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="V32" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="W32" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="X32" s="4" t="str">
-        <f>"quote("&amp;X6&amp;"),"</f>
-        <v>quote(param$MR),</v>
-      </c>
-      <c r="Y32" s="4" t="str">
-        <f>"quote("&amp;Y6&amp;"),"</f>
         <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z32" s="3">
@@ -16386,99 +16389,99 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f>"quote("&amp;J7&amp;"),"</f>
+        <f t="shared" si="5"/>
         <v>quote(CMP),</v>
       </c>
       <c r="K33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S33" s="4" t="str">
-        <f t="shared" ref="S33:W33" si="8">S7&amp;","</f>
+        <f t="shared" ref="S33:W33" si="11">S7&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T33" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="U33" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="V33" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="W33" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="X33" s="4" t="str">
-        <f>"quote("&amp;X7&amp;"),"</f>
+        <f t="shared" si="7"/>
         <v>quote(param$MR),</v>
       </c>
       <c r="Y33" s="4" t="str">
-        <f>"quote("&amp;Y7&amp;"),"</f>
+        <f t="shared" si="7"/>
         <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z33" s="3">
@@ -16487,31 +16490,31 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I34" s="4" t="str">
@@ -16519,64 +16522,64 @@
         <v>quote(param$SAEMR),</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f>"quote("&amp;J8&amp;"),"</f>
+        <f t="shared" si="5"/>
         <v>quote(CMP),</v>
       </c>
       <c r="K34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S34" s="4" t="str">
-        <f t="shared" ref="S34:X34" si="9">S8&amp;","</f>
+        <f t="shared" ref="S34:W34" si="12">S8&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T34" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U34" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="V34" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="W34" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X34" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
+        <f t="shared" si="7"/>
+        <v>quote(param$MR),</v>
       </c>
       <c r="Y34" s="4" t="str">
         <f>"quote("&amp;Y8&amp;"),"</f>
@@ -16588,99 +16591,99 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1,</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="K35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S35" s="4" t="str">
-        <f t="shared" ref="S35:Y35" si="10">S9&amp;","</f>
+        <f t="shared" ref="S35:Y35" si="13">S9&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T35" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="U35" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="V35" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="W35" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="X35" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="Y35" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="Z35" s="3">
@@ -16689,35 +16692,35 @@
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J36" s="4" t="str">
@@ -16725,55 +16728,55 @@
         <v>quote(CMP),</v>
       </c>
       <c r="K36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S36" s="4" t="str">
-        <f t="shared" ref="S36:W36" si="11">S10&amp;","</f>
+        <f t="shared" ref="S36:W36" si="14">S10&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T36" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="U36" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="V36" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="W36" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="X36" s="4" t="str">
@@ -16790,99 +16793,99 @@
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="K37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f>"quote("&amp;L11&amp;"),"</f>
+        <f t="shared" ref="L37:Q37" si="15">"quote("&amp;L11&amp;"),"</f>
         <v>quote((1 - param$POP) * (1 - (param$RR * param$RRADJUST))),</v>
       </c>
       <c r="M37" s="4" t="str">
-        <f>"quote("&amp;M11&amp;"),"</f>
-        <v>quote(param$POP * (1 - (param$TESTSN * param$ATTEND) - (param$RR * param$RRADJUST * (1 - (param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT))))),</v>
+        <f t="shared" si="15"/>
+        <v>quote(param$POP * (1 - (param$TESTSN * param$ATTEND) - (param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT)))))),</v>
       </c>
       <c r="N37" s="4" t="str">
-        <f>"quote("&amp;N11&amp;"),"</f>
+        <f t="shared" si="15"/>
         <v>quote(param$POP * param$TESTSN * param$ATTEND * (1 - param$BEGINTREAT)),</v>
       </c>
       <c r="O37" s="4" t="str">
-        <f>"quote("&amp;O11&amp;"),"</f>
+        <f t="shared" si="15"/>
         <v>quote(param$POP * param$TESTSN * param$ATTEND * param$BEGINTREAT * (1 - param$TREATR - param$SAE)),</v>
       </c>
       <c r="P37" s="4" t="str">
-        <f>"quote("&amp;P11&amp;"),"</f>
+        <f t="shared" si="15"/>
         <v>quote(param$POP * param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR),</v>
       </c>
       <c r="Q37" s="4" t="str">
-        <f>"quote("&amp;Q11&amp;"),"</f>
+        <f t="shared" si="15"/>
         <v>quote(param$POP * param$TESTSN * param$ATTEND * param$BEGINTREAT * param$SAE),</v>
       </c>
       <c r="R37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S37" s="4" t="str">
-        <f t="shared" ref="S37:Y37" si="12">S11&amp;","</f>
+        <f t="shared" ref="S37:Y37" si="16">S11&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T37" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="U37" s="4" t="str">
         <f>"quote("&amp;U11&amp;"),"</f>
-        <v>quote(((1 - param$POP) * param$RR * param$RRADJUST) + (param$POP * param$RR * param$RRADJUST * (1 - (param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT)))),</v>
+        <v>quote(((1 - param$POP) * param$RR * param$RRADJUST) + (param$POP * param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT))))),</v>
       </c>
       <c r="V37" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="W37" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="X37" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="Y37" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="Z37" s="3">
@@ -16891,71 +16894,71 @@
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="K38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S38" s="4" t="str">
@@ -16963,7 +16966,7 @@
         <v>quote(CMP),</v>
       </c>
       <c r="T38" s="4" t="str">
-        <f t="shared" ref="T38:W38" si="13">T12&amp;","</f>
+        <f t="shared" ref="T38:W38" si="17">T12&amp;","</f>
         <v>0,</v>
       </c>
       <c r="U38" s="4" t="str">
@@ -16971,19 +16974,19 @@
         <v>quote(param$RR*param$RRADJUST),</v>
       </c>
       <c r="V38" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="W38" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="X38" s="4" t="str">
-        <f>"quote("&amp;X12&amp;"),"</f>
+        <f t="shared" ref="X38:Y43" si="18">"quote("&amp;X12&amp;"),"</f>
         <v>quote(param$MR),</v>
       </c>
       <c r="Y38" s="4" t="str">
-        <f>"quote("&amp;Y12&amp;"),"</f>
+        <f t="shared" si="18"/>
         <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z38" s="3">
@@ -16992,71 +16995,71 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="K39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S39" s="4" t="str">
@@ -17064,7 +17067,7 @@
         <v>quote(CMP),</v>
       </c>
       <c r="T39" s="4" t="str">
-        <f t="shared" ref="T39:W39" si="14">T13&amp;","</f>
+        <f t="shared" ref="T39:W39" si="19">T13&amp;","</f>
         <v>0,</v>
       </c>
       <c r="U39" s="4" t="str">
@@ -17072,19 +17075,19 @@
         <v>quote(param$RR*param$RRADJUST),</v>
       </c>
       <c r="V39" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="W39" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="X39" s="4" t="str">
-        <f>"quote("&amp;X13&amp;"),"</f>
+        <f t="shared" si="18"/>
         <v>quote(param$MR),</v>
       </c>
       <c r="Y39" s="4" t="str">
-        <f>"quote("&amp;Y13&amp;"),"</f>
+        <f t="shared" si="18"/>
         <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z39" s="3">
@@ -17093,71 +17096,71 @@
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="K40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S40" s="4" t="str">
@@ -17165,7 +17168,7 @@
         <v>quote(CMP),</v>
       </c>
       <c r="T40" s="4" t="str">
-        <f t="shared" ref="T40:W40" si="15">T14&amp;","</f>
+        <f t="shared" ref="T40:W40" si="20">T14&amp;","</f>
         <v>0,</v>
       </c>
       <c r="U40" s="4" t="str">
@@ -17173,19 +17176,19 @@
         <v>quote(param$RR*param$RRADJUST),</v>
       </c>
       <c r="V40" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
       <c r="W40" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
       <c r="X40" s="4" t="str">
-        <f>"quote("&amp;X14&amp;"),"</f>
+        <f t="shared" si="18"/>
         <v>quote(param$MR),</v>
       </c>
       <c r="Y40" s="4" t="str">
-        <f>"quote("&amp;Y14&amp;"),"</f>
+        <f t="shared" si="18"/>
         <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z40" s="3">
@@ -17194,71 +17197,71 @@
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="K41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S41" s="4" t="str">
@@ -17266,7 +17269,7 @@
         <v>quote(CMP),</v>
       </c>
       <c r="T41" s="4" t="str">
-        <f t="shared" ref="T41:W41" si="16">T15&amp;","</f>
+        <f t="shared" ref="T41:W41" si="21">T15&amp;","</f>
         <v>0,</v>
       </c>
       <c r="U41" s="4" t="str">
@@ -17274,19 +17277,19 @@
         <v>quote(param$RR*param$RRADJUST),</v>
       </c>
       <c r="V41" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="W41" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="X41" s="4" t="str">
-        <f>"quote("&amp;X15&amp;"),"</f>
+        <f t="shared" si="18"/>
         <v>quote(param$MR),</v>
       </c>
       <c r="Y41" s="4" t="str">
-        <f>"quote("&amp;Y15&amp;"),"</f>
+        <f t="shared" si="18"/>
         <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z41" s="3">
@@ -17295,75 +17298,75 @@
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="K42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S42" s="4" t="str">
-        <f t="shared" ref="S42:W42" si="17">S16&amp;","</f>
+        <f t="shared" ref="S42:W42" si="22">S16&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T42" s="4" t="str">
@@ -17371,23 +17374,23 @@
         <v>quote(CMP),</v>
       </c>
       <c r="U42" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="V42" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="W42" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="X42" s="4" t="str">
-        <f>"quote("&amp;X16&amp;"),"</f>
+        <f t="shared" si="18"/>
         <v>quote(param$MR),</v>
       </c>
       <c r="Y42" s="4" t="str">
-        <f>"quote("&amp;Y16&amp;"),"</f>
+        <f t="shared" si="18"/>
         <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z42" s="3">
@@ -17396,67 +17399,67 @@
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="F43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="G43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="H43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="I43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="K43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R43" s="4" t="str">
@@ -17468,7 +17471,7 @@
         <v>quote(CMP),</v>
       </c>
       <c r="T43" s="4" t="str">
-        <f t="shared" ref="T43:X43" si="18">T17&amp;","</f>
+        <f t="shared" ref="T43:W43" si="23">T17&amp;","</f>
         <v>0,</v>
       </c>
       <c r="U43" s="4" t="str">
@@ -17476,16 +17479,16 @@
         <v>quote(param$RR*param$RRADJUST),</v>
       </c>
       <c r="V43" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="W43" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="X43" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0,</v>
+        <v>quote(param$MR),</v>
       </c>
       <c r="Y43" s="4" t="str">
         <f>"quote("&amp;Y17&amp;"),"</f>
@@ -17497,99 +17500,99 @@
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f t="shared" ref="C44:R51" si="19">C18&amp;","</f>
+        <f t="shared" ref="C44:R51" si="24">C18&amp;","</f>
         <v>0,</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="F44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="H44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="I44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="K44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="N44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="O44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="P44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="Q44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="R44" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1,</v>
       </c>
       <c r="S44" s="4" t="str">
-        <f t="shared" ref="S44:Y44" si="20">S18&amp;","</f>
+        <f t="shared" ref="S44:Y44" si="25">S18&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T44" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="U44" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="V44" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="W44" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="X44" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="Y44" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="Z44" s="3">
@@ -17598,71 +17601,71 @@
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="F45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="H45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="I45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="K45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="N45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="O45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="P45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="Q45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="R45" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="S45" s="4" t="str">
@@ -17670,7 +17673,7 @@
         <v>quote(CMP),</v>
       </c>
       <c r="T45" s="4" t="str">
-        <f t="shared" ref="T45:W45" si="21">T19&amp;","</f>
+        <f t="shared" ref="T45:W45" si="26">T19&amp;","</f>
         <v>0,</v>
       </c>
       <c r="U45" s="4" t="str">
@@ -17678,11 +17681,11 @@
         <v>quote(param$RR*param$RRADJUST),</v>
       </c>
       <c r="V45" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="W45" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="X45" s="4" t="str">
@@ -17699,75 +17702,75 @@
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="F46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="H46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="I46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="K46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="N46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="O46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="P46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="Q46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="R46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="S46" s="4" t="str">
-        <f t="shared" ref="S46:W46" si="22">S20&amp;","</f>
+        <f t="shared" ref="S46:W46" si="27">S20&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T46" s="4" t="str">
@@ -17775,15 +17778,15 @@
         <v>quote(CMP),</v>
       </c>
       <c r="U46" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="V46" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="W46" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="X46" s="4" t="str">
@@ -17800,83 +17803,83 @@
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="F47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="H47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="I47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="K47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="N47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="O47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="P47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="Q47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="R47" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="S47" s="4" t="str">
-        <f t="shared" ref="S47:Y47" si="23">S21&amp;","</f>
+        <f t="shared" ref="S47:X47" si="28">S21&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T47" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="U47" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="V47" s="4" t="str">
@@ -17888,12 +17891,12 @@
         <v>quote(param$TBMR),</v>
       </c>
       <c r="X47" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="Y47" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>0,</v>
+        <f>"quote("&amp;Y21&amp;"),"</f>
+        <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Z47" s="3">
         <v>20</v>
@@ -17901,83 +17904,83 @@
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="F48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="H48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="I48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="K48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="N48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="O48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="P48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="Q48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="R48" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="S48" s="4" t="str">
-        <f t="shared" ref="S48:W48" si="24">S22&amp;","</f>
+        <f t="shared" ref="S48:W48" si="29">S22&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T48" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="U48" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="V48" s="4" t="str">
@@ -17985,7 +17988,7 @@
         <v>quote(CMP),</v>
       </c>
       <c r="W48" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="X48" s="4" t="str">
@@ -18002,99 +18005,99 @@
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="F49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="H49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="I49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="J49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="K49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="N49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="O49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="P49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="Q49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="R49" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="S49" s="4" t="str">
-        <f t="shared" ref="S49:Y49" si="25">S23&amp;","</f>
+        <f t="shared" ref="S49:Y49" si="30">S23&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T49" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0,</v>
       </c>
       <c r="U49" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0,</v>
       </c>
       <c r="V49" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0,</v>
       </c>
       <c r="W49" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1,</v>
       </c>
       <c r="X49" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0,</v>
       </c>
       <c r="Y49" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0,</v>
       </c>
       <c r="Z49" s="3">
@@ -18103,99 +18106,99 @@
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="F50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="H50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="I50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="K50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="N50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="O50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="P50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="Q50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="R50" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="S50" s="4" t="str">
-        <f t="shared" ref="S50:Y50" si="26">S24&amp;","</f>
+        <f t="shared" ref="S50:Y50" si="31">S24&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T50" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0,</v>
       </c>
       <c r="U50" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0,</v>
       </c>
       <c r="V50" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0,</v>
       </c>
       <c r="W50" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0,</v>
       </c>
       <c r="X50" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1,</v>
       </c>
       <c r="Y50" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0,</v>
       </c>
       <c r="Z50" s="3">
@@ -18204,99 +18207,99 @@
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="D51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="F51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="H51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="I51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="K51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="N51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="O51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="P51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="Q51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="R51" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="S51" s="4" t="str">
-        <f t="shared" ref="S51:Y51" si="27">S25&amp;","</f>
+        <f t="shared" ref="S51:Y51" si="32">S25&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T51" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="U51" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="V51" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="W51" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="X51" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="Y51" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1,</v>
       </c>
       <c r="Z51" s="3">
@@ -18449,7 +18452,7 @@
   <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Y51" sqref="B28:Y51"/>
@@ -20149,8 +20152,8 @@
       <c r="X21" s="4">
         <v>0</v>
       </c>
-      <c r="Y21" s="4">
-        <v>0</v>
+      <c r="Y21" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="AA21" s="4">
         <v>20</v>
@@ -20605,7 +20608,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="str">
-        <f t="shared" ref="B29:Y29" si="1">B3&amp;","</f>
+        <f t="shared" ref="B29:W29" si="1">B3&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C29" s="4" t="str">
@@ -21312,7 +21315,7 @@
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="str">
-        <f t="shared" ref="B36:Y36" si="8">B10&amp;","</f>
+        <f t="shared" ref="B36:W36" si="8">B10&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C36" s="4" t="str">
@@ -21514,7 +21517,7 @@
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="str">
-        <f t="shared" ref="B38:Y38" si="10">B12&amp;","</f>
+        <f t="shared" ref="B38:W38" si="10">B12&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C38" s="4" t="str">
@@ -22019,7 +22022,7 @@
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="str">
-        <f t="shared" ref="B43:Y44" si="15">B17&amp;","</f>
+        <f t="shared" ref="B43:Y43" si="15">B17&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C43" s="4" t="str">
@@ -22221,7 +22224,7 @@
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="str">
-        <f t="shared" ref="B45:Y45" si="17">B19&amp;","</f>
+        <f t="shared" ref="B45:W45" si="17">B19&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C45" s="4" t="str">
@@ -22423,7 +22426,7 @@
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="str">
-        <f t="shared" ref="B47:Y47" si="19">B21&amp;","</f>
+        <f t="shared" ref="B47:X47" si="19">B21&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C47" s="4" t="str">
@@ -22515,8 +22518,8 @@
         <v>0,</v>
       </c>
       <c r="Y47" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0,</v>
+        <f>"quote("&amp;Y21&amp;"),"</f>
+        <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="AA47" s="4">
         <v>20</v>
@@ -22524,7 +22527,7 @@
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="str">
-        <f t="shared" ref="B48:Y48" si="20">B22&amp;","</f>
+        <f t="shared" ref="B48:W48" si="20">B22&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C48" s="4" t="str">
@@ -23020,7 +23023,7 @@
         <v>"p.death",</v>
       </c>
       <c r="Y56" s="4" t="str">
-        <f t="shared" ref="D56:Y56" si="25">CHAR(34)&amp;Y1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="Y56" si="25">CHAR(34)&amp;Y1&amp;CHAR(34)&amp;","</f>
         <v>"p.emigrate",</v>
       </c>
     </row>

--- a/Data/Data dictionary KD3.xlsx
+++ b/Data/Data dictionary KD3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="165" windowWidth="13215" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="165" windowWidth="13215" windowHeight="9420" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data key" sheetId="2" r:id="rId1"/>
@@ -594,7 +594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -774,11 +774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13828,11 +13828,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y51" sqref="B28:Y51"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Data dictionary KD3.xlsx
+++ b/Data/Data dictionary KD3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="165" windowWidth="13215" windowHeight="9420" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="60" yWindow="165" windowWidth="13215" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data key" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="96">
   <si>
     <t>p.sus</t>
   </si>
@@ -270,10 +270,43 @@
     <t>p.ltbi.ongoing risk</t>
   </si>
   <si>
-    <t>((1 - param$POP) * param$RR * param$RRADJUST) + (param$POP * param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT))))</t>
+    <t>1 - (param$POP * param$ATTENDSCREEN)</t>
   </si>
   <si>
-    <t>param$POP * (1 - (param$TESTSN * param$ATTEND) - (param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT)))))</t>
+    <t>(param$POP * param$ATTENDSCREEN) * (1 - (1-param$TESTSP) * param$ATTEND)</t>
+  </si>
+  <si>
+    <t>(param$POP * param$ATTENDSCREEN) * (1 - param$TESTSP) * param$ATTEND * (1 - param$BEGINTREAT)</t>
+  </si>
+  <si>
+    <t>(param$POP * param$ATTENDSCREEN) * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * (1 - param$TREATR - param$SAE)</t>
+  </si>
+  <si>
+    <t>(param$POP * param$ATTENDSCREEN) * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * param$TREATR</t>
+  </si>
+  <si>
+    <t>(param$POP * param$ATTENDSCREEN) * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * param$SAE</t>
+  </si>
+  <si>
+    <t>(1 - (param$POP * param$ATTENDSCREEN)) * (1 - (param$RR * param$RRADJUST))</t>
+  </si>
+  <si>
+    <t>(param$POP * param$ATTENDSCREEN) * (1 - (param$TESTSN * param$ATTEND) - (param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT)))))</t>
+  </si>
+  <si>
+    <t>(param$POP * param$ATTENDSCREEN) * param$TESTSN * param$ATTEND * (1 - param$BEGINTREAT)</t>
+  </si>
+  <si>
+    <t>(param$POP * param$ATTENDSCREEN) * param$TESTSN * param$ATTEND * param$BEGINTREAT * (1 - param$TREATR - param$SAE)</t>
+  </si>
+  <si>
+    <t>(param$POP * param$ATTENDSCREEN) * param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR</t>
+  </si>
+  <si>
+    <t>(param$POP * param$ATTENDSCREEN) * param$TESTSN * param$ATTEND * param$BEGINTREAT * param$SAE</t>
+  </si>
+  <si>
+    <t>((1 - (param$POP * param$ATTENDSCREEN)) * param$RR * param$RRADJUST) + ((param$POP * param$ATTENDSCREEN) * param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT))))</t>
   </si>
 </sst>
 </file>
@@ -13829,10 +13862,10 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13944,22 +13977,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -14691,22 +14724,22 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="R11" s="4">
         <v>0</v>
@@ -14718,7 +14751,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="V11" s="4">
         <v>0</v>
@@ -15889,27 +15922,27 @@
       </c>
       <c r="C28" s="4" t="str">
         <f t="shared" ref="C28:H28" si="0">"quote("&amp;C2&amp;"),"</f>
-        <v>quote(1 - param$POP),</v>
+        <v>quote(1 - (param$POP * param$ATTENDSCREEN)),</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>quote(param$POP * (1 - (1-param$TESTSP) * param$ATTEND)),</v>
+        <v>quote((param$POP * param$ATTENDSCREEN) * (1 - (1-param$TESTSP) * param$ATTEND)),</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>quote(param$POP * (1 - param$TESTSP) * param$ATTEND * (1 - param$BEGINTREAT)),</v>
+        <v>quote((param$POP * param$ATTENDSCREEN) * (1 - param$TESTSP) * param$ATTEND * (1 - param$BEGINTREAT)),</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>quote(param$POP * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * (1 - param$TREATR - param$SAE)),</v>
+        <v>quote((param$POP * param$ATTENDSCREEN) * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * (1 - param$TREATR - param$SAE)),</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>quote(param$POP * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * param$TREATR),</v>
+        <v>quote((param$POP * param$ATTENDSCREEN) * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * param$TREATR),</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>quote(param$POP * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * param$SAE),</v>
+        <v>quote((param$POP * param$ATTENDSCREEN) * (1 - param$TESTSP) * param$ATTEND * param$BEGINTREAT * param$SAE),</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" ref="C28:R43" si="1">I2&amp;","</f>
@@ -16834,27 +16867,27 @@
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" ref="L37:Q37" si="15">"quote("&amp;L11&amp;"),"</f>
-        <v>quote((1 - param$POP) * (1 - (param$RR * param$RRADJUST))),</v>
+        <v>quote((1 - (param$POP * param$ATTENDSCREEN)) * (1 - (param$RR * param$RRADJUST))),</v>
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>quote(param$POP * (1 - (param$TESTSN * param$ATTEND) - (param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT)))))),</v>
+        <v>quote((param$POP * param$ATTENDSCREEN) * (1 - (param$TESTSN * param$ATTEND) - (param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT)))))),</v>
       </c>
       <c r="N37" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>quote(param$POP * param$TESTSN * param$ATTEND * (1 - param$BEGINTREAT)),</v>
+        <v>quote((param$POP * param$ATTENDSCREEN) * param$TESTSN * param$ATTEND * (1 - param$BEGINTREAT)),</v>
       </c>
       <c r="O37" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>quote(param$POP * param$TESTSN * param$ATTEND * param$BEGINTREAT * (1 - param$TREATR - param$SAE)),</v>
+        <v>quote((param$POP * param$ATTENDSCREEN) * param$TESTSN * param$ATTEND * param$BEGINTREAT * (1 - param$TREATR - param$SAE)),</v>
       </c>
       <c r="P37" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>quote(param$POP * param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR),</v>
+        <v>quote((param$POP * param$ATTENDSCREEN) * param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR),</v>
       </c>
       <c r="Q37" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>quote(param$POP * param$TESTSN * param$ATTEND * param$BEGINTREAT * param$SAE),</v>
+        <v>quote((param$POP * param$ATTENDSCREEN) * param$TESTSN * param$ATTEND * param$BEGINTREAT * param$SAE),</v>
       </c>
       <c r="R37" s="4" t="str">
         <f t="shared" si="1"/>
@@ -16870,7 +16903,7 @@
       </c>
       <c r="U37" s="4" t="str">
         <f>"quote("&amp;U11&amp;"),"</f>
-        <v>quote(((1 - param$POP) * param$RR * param$RRADJUST) + (param$POP * param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT))))),</v>
+        <v>quote(((1 - (param$POP * param$ATTENDSCREEN)) * param$RR * param$RRADJUST) + ((param$POP * param$ATTENDSCREEN) * param$RR * param$RRADJUST * (1 - ((param$TESTSN * param$ATTEND * param$BEGINTREAT * param$TREATR) * (1 - param$TIMETOTREAT))))),</v>
       </c>
       <c r="V37" s="4" t="str">
         <f t="shared" si="16"/>
@@ -18452,7 +18485,7 @@
   <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Y51" sqref="B28:Y51"/>

--- a/Data/Data dictionary KD3.xlsx
+++ b/Data/Data dictionary KD3.xlsx
@@ -627,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13865,7 +13865,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Data dictionary KD3.xlsx
+++ b/Data/Data dictionary KD3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="165" windowWidth="13215" windowHeight="9420" activeTab="4"/>
+    <workbookView xWindow="60" yWindow="165" windowWidth="13215" windowHeight="9420" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data key" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="96">
   <si>
     <t>p.sus</t>
   </si>
@@ -627,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13859,13 +13859,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z60"/>
+  <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13886,16 +13886,18 @@
     <col min="16" max="16" width="16.85546875" style="2" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="2" customWidth="1"/>
     <col min="18" max="20" width="21.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="23.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="41.85546875" style="2" customWidth="1"/>
     <col min="22" max="22" width="28" style="2" customWidth="1"/>
     <col min="23" max="23" width="22.28515625" style="2" customWidth="1"/>
     <col min="24" max="24" width="18.42578125" style="2" customWidth="1"/>
     <col min="25" max="25" width="24.85546875" style="2" customWidth="1"/>
     <col min="26" max="26" width="9.140625" style="3"/>
-    <col min="27" max="16384" width="9.140625" style="2"/>
+    <col min="27" max="27" width="9.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13968,8 +13970,23 @@
       <c r="Y1" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -14048,8 +14065,23 @@
       <c r="Z2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -14128,8 +14160,23 @@
       <c r="Z3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -14208,8 +14255,23 @@
       <c r="Z4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -14288,8 +14350,23 @@
       <c r="Z5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -14368,8 +14445,23 @@
       <c r="Z6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -14448,8 +14540,23 @@
       <c r="Z7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -14528,8 +14635,23 @@
       <c r="Z8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -14608,8 +14730,23 @@
       <c r="Z9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -14688,8 +14825,23 @@
       <c r="Z10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -14768,8 +14920,23 @@
       <c r="Z11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -14848,8 +15015,23 @@
       <c r="Z12" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -14928,8 +15110,23 @@
       <c r="Z13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -15008,8 +15205,23 @@
       <c r="Z14" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
@@ -15088,8 +15300,23 @@
       <c r="Z15" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -15168,8 +15395,23 @@
       <c r="Z16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -15248,8 +15490,23 @@
       <c r="Z17" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -15328,8 +15585,23 @@
       <c r="Z18" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -15408,8 +15680,23 @@
       <c r="Z19" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -15488,8 +15775,23 @@
       <c r="Z20" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -15568,8 +15870,23 @@
       <c r="Z21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -15648,8 +15965,23 @@
       <c r="Z22" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -15728,8 +16060,23 @@
       <c r="Z23" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -15808,8 +16155,23 @@
       <c r="Z24" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -15889,8 +16251,24 @@
       <c r="Z25" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4">
+        <f>SUM(K25:AD25)</f>
+        <v>25</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" s="4">
         <v>0</v>
       </c>
@@ -15901,7 +16279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
@@ -15915,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="str">
         <f>B2&amp;","</f>
         <v>0,</v>
@@ -16016,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="str">
         <f t="shared" ref="B29:Q51" si="4">B3&amp;","</f>
         <v>0,</v>
@@ -16117,7 +16495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="str">
         <f t="shared" si="4"/>
         <v>0,</v>
@@ -16218,7 +16596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>0,</v>
@@ -16319,7 +16697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="str">
         <f t="shared" si="4"/>
         <v>0,</v>
@@ -18484,11 +18862,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y51" sqref="B28:Y51"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
